--- a/teszt dokumentáció.xlsx
+++ b/teszt dokumentáció.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diak\KM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93495F9-52D4-48E3-AD9A-54DCEEBD7264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E445F09-7292-4A64-A3B3-161A31857B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{755A9F42-B171-4462-8C98-724EE64C6114}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>Teszt dokumentáció</t>
   </si>
@@ -122,19 +122,427 @@
 megfelelnek</t>
   </si>
   <si>
-    <t>H005</t>
-  </si>
-  <si>
-    <t>H004</t>
-  </si>
-  <si>
-    <t>H003</t>
-  </si>
-  <si>
-    <t>H002</t>
-  </si>
-  <si>
-    <t>H001</t>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>Kattintás</t>
+  </si>
+  <si>
+    <t>Lenyílik a menü</t>
+  </si>
+  <si>
+    <t>Menü fül lenyílása kisebb szélességű oldalon</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>Főoldalra váltás</t>
+  </si>
+  <si>
+    <t>Főoldalra átlépés</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S081</t>
+  </si>
+  <si>
+    <t>S082</t>
+  </si>
+  <si>
+    <t>S083</t>
+  </si>
+  <si>
+    <t>Profil fül lenyitása</t>
+  </si>
+  <si>
+    <t>Profil fül lenyílik</t>
+  </si>
+  <si>
+    <t>Profil fülön belüli profil oldalrész</t>
+  </si>
+  <si>
+    <t>Profil oldalra átlépés</t>
+  </si>
+  <si>
+    <t>Profi fülön belül foglalások oldalrész</t>
+  </si>
+  <si>
+    <t>Foglalások oldalra átlépés</t>
+  </si>
+  <si>
+    <t>Kijelentkezés</t>
+  </si>
+  <si>
+    <t>Komment írása</t>
+  </si>
+  <si>
+    <t>Komment írása, kattintás a Küldés gombra</t>
+  </si>
+  <si>
+    <t>Komment megjelenik a terem alatti komment szekcióban</t>
+  </si>
+  <si>
+    <t>Feldob egy lehetőséget hogy foglalj időpontot dátumra és órára</t>
+  </si>
+  <si>
+    <t>Foglalás gomb</t>
+  </si>
+  <si>
+    <t>Foglaláson belüli "X" gomb</t>
+  </si>
+  <si>
+    <t>Kilépés a foglalásból</t>
+  </si>
+  <si>
+    <t>Hónap részre kattintás</t>
+  </si>
+  <si>
+    <t>Év részre kattintás</t>
+  </si>
+  <si>
+    <t>Év kiválasztásának lehetősége</t>
+  </si>
+  <si>
+    <t>Hónap kiválasztásának lehetősége</t>
+  </si>
+  <si>
+    <t>Nyílak a hónap és év mellett</t>
+  </si>
+  <si>
+    <t>Bal oldali nyíl egy hónapot visszamegy, jobb oldali nyíl egy hónapot előre megy</t>
+  </si>
+  <si>
+    <t>Profil fülön belül kijelentkezés</t>
+  </si>
+  <si>
+    <t>Elfelejtett jelszó</t>
+  </si>
+  <si>
+    <t>Felugró ablak megjelenése</t>
+  </si>
+  <si>
+    <t>Regisztrált e-mail beírása</t>
+  </si>
+  <si>
+    <t>ritzlbencelevente@ktch.hu</t>
+  </si>
+  <si>
+    <t>Sikeres elküldés, felugró ablak jelzi</t>
+  </si>
+  <si>
+    <t>Üres mezővel való bejelentkezés</t>
+  </si>
+  <si>
+    <t>Hibaüzenet megjelenése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keresés </t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>Zuglói Sportcentrum megjelenése</t>
+  </si>
+  <si>
+    <t>lllll</t>
+  </si>
+  <si>
+    <t>Nem talál termet</t>
+  </si>
+  <si>
+    <t>Lefelé görgetés</t>
+  </si>
+  <si>
+    <t>Görgetés</t>
+  </si>
+  <si>
+    <t>100px után jobb alsó sarokban megjelenik egy gomb</t>
+  </si>
+  <si>
+    <t>Megjelenő gomb</t>
+  </si>
+  <si>
+    <t>Visszavisz az oldal tetejére</t>
+  </si>
+  <si>
+    <t>Üresen hagyom a foglalási mezőt</t>
+  </si>
+  <si>
+    <t>Csak a dátumot jelölöm be</t>
+  </si>
+  <si>
+    <t>14-16 óráig</t>
+  </si>
+  <si>
+    <t>Csak az időpontot jelölöm be</t>
+  </si>
+  <si>
+    <t>Egy múltban lévő dátumot jelölök be időponttal dátummal</t>
+  </si>
+  <si>
+    <t>Március 25, 14-16 óráig</t>
+  </si>
+  <si>
+    <t>Egy jövőbeni dátumot jelölök be időponttal, dátummal</t>
+  </si>
+  <si>
+    <t>Április 25, 11-12 óráig</t>
+  </si>
+  <si>
+    <t>Engedi a foglalás lehetőségét, megjelenik egy foglalás gomb</t>
+  </si>
+  <si>
+    <t>Nem engedi a foglalás lehetőségét, csak egy vissza gomb jelenik meg</t>
+  </si>
+  <si>
+    <t>Április 24,</t>
+  </si>
+  <si>
+    <t>"A foglalás sikeresen megtörtént!" írású felugró ablak jelzi a foglalás sikerességét</t>
+  </si>
+  <si>
+    <t>Foglalás ugyanarra az időpontra</t>
+  </si>
+  <si>
+    <t>Április 25,</t>
+  </si>
+  <si>
+    <t>A kiválasztható időpontok között a 11-12 óráig pirosan van jelölve, nem választhatóak</t>
   </si>
 </sst>
 </file>
@@ -194,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -203,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -231,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14EFC9EC-7A63-489B-8FEA-2858321CD3F3}" name="Táblázat1" displayName="Táblázat1" ref="B2:H22" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B2:H22" xr:uid="{59CF7E86-FA63-43E8-AF11-63C494EAA270}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14EFC9EC-7A63-489B-8FEA-2858321CD3F3}" name="Táblázat1" displayName="Táblázat1" ref="B2:H85" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:H85" xr:uid="{59CF7E86-FA63-43E8-AF11-63C494EAA270}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D81D5FA3-24C8-42DC-8C5D-F536AE5D9A26}" name="Azonosító"/>
     <tableColumn id="2" xr3:uid="{BC47191E-C959-47E2-9539-458935AD9BE0}" name="Tesztelési cél"/>
@@ -543,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62545A5C-2CC9-4318-828D-27BDD91120C4}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +1000,7 @@
     </row>
     <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -611,7 +1020,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -654,7 +1063,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -674,7 +1083,7 @@
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -689,17 +1098,954 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="teszt@teszt.com" xr:uid="{1A09B7D1-7CCD-43DC-9769-A076E60D40B0}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{3CCB30DD-2941-4C98-B159-E631949DD4A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>